--- a/relevamientoinfo/tofix.xlsx
+++ b/relevamientoinfo/tofix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanjoInvest\OneDrive\desarrollo\la mejor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanjoInvest\Documents\applm\trunk\relevamientoinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7305" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7305" windowHeight="6180" tabRatio="635"/>
   </bookViews>
   <sheets>
     <sheet name="TO FIX" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <r>
       <t>·</t>
@@ -504,13 +504,136 @@
   </si>
   <si>
     <t>JJ</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ventas Caja</t>
+    </r>
+  </si>
+  <si>
+    <t>o   En el listado aparecen las ventas mayoristas tambien, pero sin la descripción</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>El orden del listado está por código de barra, debería estar por descripción??</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En el listado habría que sacar descripción larga ya que es lo mismo que descripción breve.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En Agregar Producto: luego de escribir el código de barra, no puedo escribir el precio. No me deja ingresar nada. También habría que indicar cuantos dígitos se pueden ingresar en el código de barra. Si van 5 dígitos o si van los 13.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En Histórico Precios: revisar cómo cambiar el precio. Es bastante feo el preCalculate</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +667,25 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -587,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,6 +751,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,6 +1457,114 @@
       </c>
       <c r="F22" s="4"/>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43229</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7">
+        <v>43228</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="12">
+        <v>43228</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="12">
+        <v>43228</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="12">
+        <v>43228</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="12">
+        <v>43228</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/relevamientoinfo/tofix.xlsx
+++ b/relevamientoinfo/tofix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanjoInvest\Documents\applm\trunk\relevamientoinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\trunk\relevamientoinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7305" windowHeight="6180" tabRatio="635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7310" windowHeight="6180" tabRatio="635"/>
   </bookViews>
   <sheets>
     <sheet name="TO FIX" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
   <si>
     <r>
       <t>·</t>
@@ -506,13 +506,27 @@
     <t>JJ</t>
   </si>
   <si>
+    <t>o   En el listado aparecen las ventas mayoristas tambien, pero sin la descripción</t>
+  </si>
+  <si>
+    <t>o   el filtro PLU no hace nada</t>
+  </si>
+  <si>
+    <t>o   el filtro de fechas cambiar el formato de fechas a dd/MM/yyyy</t>
+  </si>
+  <si>
+    <t>o   el filtro entre montos se rompe</t>
+  </si>
+  <si>
+    <t>o   el listado debería estar ordenado al revés. O sea, con la venta mas reciente arriba.</t>
+  </si>
+  <si>
     <r>
       <t>·</t>
     </r>
     <r>
       <rPr>
         <sz val="7"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -521,7 +535,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -530,109 +543,44 @@
     </r>
   </si>
   <si>
-    <t>o   En el listado aparecen las ventas mayoristas tambien, pero sin la descripción</t>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El orden del listado está por código de barra, debería estar por descripción??</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En el listado habría que sacar descripción larga ya que es lo mismo que descripción breve.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En Agregar Producto: luego de escribir el código de barra, no puedo escribir el precio. No me deja ingresar nada. También habría que indicar cuantos dígitos se pueden ingresar en el código de barra. Si van 5 dígitos o si van los 13.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En Histórico Precios: revisar cómo cambiar el precio. Es bastante feo el preCalculate</t>
-    </r>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caja Mayorista</t>
+    </r>
+  </si>
+  <si>
+    <t>o   Agregar el botón para registrar el pago de la operación</t>
+  </si>
+  <si>
+    <t>o   en el listado de venta actual, la columna operación no figura nada. Que debería aparecer alli?</t>
+  </si>
+  <si>
+    <t>o   venta actual que lista? Las ventas realizadas durante el día entero? O durante la sesión abierta?</t>
+  </si>
+  <si>
+    <t>o   En agregar producto: luego de seleccionar el producto y colocar la cantidad, debería pasar el focus directamente a precio, evitando precio sugerido, y que proponga el precio sugerido pero que se pueda cambiar en el textbox precio.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,20 +618,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -729,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,10 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -767,6 +710,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,18 +995,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1079,7 +1026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1097,7 +1044,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1115,7 +1062,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1133,7 +1080,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1151,7 +1098,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1169,7 +1116,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -1187,7 +1134,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>5.2</v>
       </c>
@@ -1205,7 +1152,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5.3</v>
       </c>
@@ -1223,7 +1170,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>5.4</v>
       </c>
@@ -1241,7 +1188,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>5.5</v>
       </c>
@@ -1259,7 +1206,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>5.6</v>
       </c>
@@ -1277,7 +1224,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>5.7</v>
       </c>
@@ -1295,7 +1242,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -1313,7 +1260,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>6.1</v>
       </c>
@@ -1331,7 +1278,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>6.2</v>
       </c>
@@ -1349,7 +1296,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>7</v>
       </c>
@@ -1367,7 +1314,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>7.1</v>
       </c>
@@ -1385,7 +1332,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>7.2</v>
       </c>
@@ -1403,7 +1350,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>7.3</v>
       </c>
@@ -1421,7 +1368,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>7.4</v>
       </c>
@@ -1439,7 +1386,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>7.5</v>
       </c>
@@ -1457,116 +1404,224 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
         <v>8</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="11">
+        <v>43229</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="11">
         <v>43229</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="E24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="11">
+        <v>43229</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="12">
-        <v>43228</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="11">
+        <v>43229</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="12">
-        <v>43228</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="11">
+        <v>43229</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="12">
-        <v>43228</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="12">
-        <v>43228</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="11"/>
+      <c r="C28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="11">
+        <v>43229</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>9</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="11">
+        <v>43229</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="11">
+        <v>43229</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="11">
+        <v>43229</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="11">
+        <v>43229</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="11">
+        <v>43229</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="11">
+        <v>43229</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/relevamientoinfo/tofix.xlsx
+++ b/relevamientoinfo/tofix.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\trunk\relevamientoinfo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7310" windowHeight="6180" tabRatio="635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7305" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="TO FIX" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <r>
       <t>·</t>
@@ -406,182 +401,180 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>En el listado habría que sacar descripción larga ya que es lo mismo que descripción breve.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En Agregar Producto: luego de escribir el código de barra, no puedo escribir el precio. No me deja ingresar nada. También habría que indicar cuantos dígitos se pueden ingresar en el código de barra. Si van 5 dígitos o si van los 13.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En Histórico Precios: revisar cómo cambiar el precio. Es bastante feo el preCalculate</t>
+    </r>
+  </si>
+  <si>
+    <t>INDICE</t>
+  </si>
+  <si>
+    <t>DETALLE</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
+    <t>FECHA ULTIMO ESTADO</t>
+  </si>
+  <si>
+    <t>FIXXXER</t>
+  </si>
+  <si>
+    <t>CLAIMER</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>SOLUCIONADO</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Se agrego cod_cliente al sql de clientes.</t>
+  </si>
+  <si>
+    <t>Se agrego para el fechaUltimaActu datetimepicker</t>
+  </si>
+  <si>
+    <t>Se ordenan los resultados por razon social</t>
+  </si>
+  <si>
+    <t>Chau</t>
+  </si>
+  <si>
+    <t>Cambiado en FormInicio por Movimiento Cuentas Clientes</t>
+  </si>
+  <si>
+    <t>Ordenado por nombre de banco</t>
+  </si>
+  <si>
+    <t>Se cambio por FechaUltimaActualizacion</t>
+  </si>
+  <si>
+    <t>Listo.</t>
+  </si>
+  <si>
+    <t>Cambio a Fecha</t>
+  </si>
+  <si>
+    <t>Se le agrego el $ por delante</t>
+  </si>
+  <si>
+    <t>Ok, lo hace juan luego de mergear.</t>
+  </si>
+  <si>
+    <t>Mi no comprende.</t>
+  </si>
+  <si>
+    <t>Cambiado en 5.4</t>
+  </si>
+  <si>
+    <t>Se quito el boton, Ubicación de Productos es el formulario</t>
+  </si>
+  <si>
+    <t>Puede ordenar por lo que quiera. Me parece bien por PLU</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>El orden del listado está por código de barra, debería estar por descripción??</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En el listado habría que sacar descripción larga ya que es lo mismo que descripción breve.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En Agregar Producto: luego de escribir el código de barra, no puedo escribir el precio. No me deja ingresar nada. También habría que indicar cuantos dígitos se pueden ingresar en el código de barra. Si van 5 dígitos o si van los 13.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En Histórico Precios: revisar cómo cambiar el precio. Es bastante feo el preCalculate</t>
-    </r>
-  </si>
-  <si>
-    <t>INDICE</t>
-  </si>
-  <si>
-    <t>DETALLE</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>PENDIENTE</t>
-  </si>
-  <si>
-    <t>FECHA ULTIMO ESTADO</t>
-  </si>
-  <si>
-    <t>FIXXXER</t>
-  </si>
-  <si>
-    <t>CLAIMER</t>
-  </si>
-  <si>
-    <t>JJ</t>
-  </si>
-  <si>
-    <t>o   En el listado aparecen las ventas mayoristas tambien, pero sin la descripción</t>
-  </si>
-  <si>
-    <t>o   el filtro PLU no hace nada</t>
-  </si>
-  <si>
-    <t>o   el filtro de fechas cambiar el formato de fechas a dd/MM/yyyy</t>
-  </si>
-  <si>
-    <t>o   el filtro entre montos se rompe</t>
-  </si>
-  <si>
-    <t>o   el listado debería estar ordenado al revés. O sea, con la venta mas reciente arriba.</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ventas Caja</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Caja Mayorista</t>
-    </r>
-  </si>
-  <si>
-    <t>o   Agregar el botón para registrar el pago de la operación</t>
-  </si>
-  <si>
-    <t>o   en el listado de venta actual, la columna operación no figura nada. Que debería aparecer alli?</t>
-  </si>
-  <si>
-    <t>o   venta actual que lista? Las ventas realizadas durante el día entero? O durante la sesión abierta?</t>
-  </si>
-  <si>
-    <t>o   En agregar producto: luego de seleccionar el producto y colocar la cantidad, debería pasar el focus directamente a precio, evitando precio sugerido, y que proponga el precio sugerido pero que se pueda cambiar en el textbox precio.</t>
+    <t>Se quito DescripcionLarga de todos lados.</t>
+  </si>
+  <si>
+    <t>CodigoDeBarra al insertar tiene como minimo y maximo 5 numeros requeridos, se chequea que no existe en BD el codigodeBarra.</t>
+  </si>
+  <si>
+    <t>Eliminada funcionalidad de porcentaje aumento</t>
+  </si>
+  <si>
+    <t>COMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,24 +610,15 @@
       <family val="3"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +628,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,9 +683,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,21 +692,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,7 +798,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,7 +833,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -987,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -995,254 +1018,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="106" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="117.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="G1" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="D2" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="C3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="C4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="C5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="C6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="22">
+        <v>43228</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="C7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>5.2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="11">
+        <v>43228</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>5.3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="C9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>5.4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="C10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>5.5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="C11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>5.6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="C12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>5.7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -1250,53 +1320,60 @@
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43228</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>6.1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="C15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>6.2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>7</v>
       </c>
@@ -1304,324 +1381,130 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43228</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>7.1</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="C18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>7.2</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>7.5</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="7">
-        <v>43228</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="13">
-        <v>8</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="13">
-        <v>8.1</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="13">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="13">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="13">
-        <v>8.4</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="13">
-        <v>8.5</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="13">
-        <v>9</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="13">
-        <v>9.1</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="13">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="13">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="13">
-        <v>9.4</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="13">
-        <v>9.5</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="11">
-        <v>43229</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="10"/>
+      <c r="B22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="16">
+        <v>43228</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/relevamientoinfo/tofix.xlsx
+++ b/relevamientoinfo/tofix.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\trunk\relevamientoinfo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7305" windowHeight="6180"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <r>
       <t>·</t>
@@ -568,12 +573,60 @@
   </si>
   <si>
     <t>COMENT</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proveedores</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En Agregar Cuenta - se rompe cuando quiero agregar una cuenta a un proveedor</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,6 +790,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,7 +1066,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1021,7 +1077,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5.2</v>
       </c>
@@ -1496,6 +1552,38 @@
       <c r="G22" s="13" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="22">
+        <v>43228</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="22">
+        <v>43231</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" s="24"/>
